--- a/clean/unit/clean_unit/12015C.xlsx
+++ b/clean/unit/clean_unit/12015C.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D6">
@@ -617,7 +617,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D14">

--- a/clean/unit/clean_unit/12015C.xlsx
+++ b/clean/unit/clean_unit/12015C.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
